--- a/数据整理/stocks/A股/创业板/300443-金雷股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300443-金雷股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.04</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4032</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010505</t>
+          <t>005418</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>申万菱信创业板量化精选股票C</t>
+          <t>申万菱信量化驱动混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005418</t>
+          <t>010505</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信量化驱动混合</t>
+          <t>申万菱信创业板量化精选股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>290014</t>
+          <t>009557</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰信现代服务业混合</t>
+          <t>申万菱信创业板量化精选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -660,15 +720,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>18.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>20.07</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009557</t>
+          <t>290014</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信创业板量化精选股票A</t>
+          <t>泰信现代服务业混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -716,15 +796,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>92.12</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.17</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300443-金雷股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300443-金雷股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,1162 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4660</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3510</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3481</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3314</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3125</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2740</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>38.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>59.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>56.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>59.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300443-金雷股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300443-金雷股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1980,4 +1981,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300443-金雷股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300443-金雷股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1989,7 +1990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2000,17 +2001,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2020,14 +2041,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.34</v>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2901</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2036,14 +2079,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.32</v>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6173</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2052,13 +2117,781 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4672</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2779</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2147</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300443-金雷股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300443-金雷股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2806,7 +2807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2817,17 +2818,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2837,14 +2858,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.88</v>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3363</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2853,14 +2896,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.34</v>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2869,14 +2934,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.32</v>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2885,13 +2972,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300443-金雷股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300443-金雷股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3091,7 +3092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3102,17 +3103,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3122,14 +3143,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9520</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.63</v>
       </c>
     </row>
     <row r="3">
@@ -3138,14 +3181,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.88</v>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3243</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3154,14 +3219,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.34</v>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3188</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3170,14 +3257,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.32</v>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3186,13 +3295,1079 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015455</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002455</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银鑫喜灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>农银汇理秀山一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300443-金雷股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300443-金雷股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,177 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009557</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>申万菱信创业板量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4032</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005418</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>申万菱信量化驱动混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.73</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0316</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010505</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>申万菱信创业板量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.10</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,37 +467,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -677,36 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009557</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>申万菱信创业板量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1618</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.81</v>
       </c>
     </row>
     <row r="3">
@@ -715,36 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002006</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信新得益混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18.07</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1409</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="4">
@@ -753,36 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>290014</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰信现代服务业混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.67</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0195</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.88</v>
       </c>
     </row>
     <row r="5">
@@ -791,36 +535,46 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010505</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>申万菱信创业板量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -828,7 +582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -855,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -885,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001856</t>
+          <t>010963</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达环保主题灵活配置混合</t>
+          <t>信达澳银周期动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>63.90</t>
+          <t>40.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6455</t>
+          <t>0.9520</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -923,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002148</t>
+          <t>673060</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国寿安保稳惠灵活配置混合</t>
+          <t>西部利得景瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.46</t>
+          <t>93.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4660</t>
+          <t>0.3243</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -961,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160143</t>
+          <t>000977</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方创业板2年定期开放混合</t>
+          <t>长城环保主题灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>97.48</t>
+          <t>88.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4128</t>
+          <t>0.3188</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -999,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>673060</t>
+          <t>010049</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合A</t>
+          <t>长城成长先锋混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.32</t>
+          <t>86.98</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3510</t>
+          <t>0.2337</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1037,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008404</t>
+          <t>004128</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰紫金泰盈混合A</t>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>77.05</t>
+          <t>90.39</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3481</t>
+          <t>0.2092</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1075,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001445</t>
+          <t>007040</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安国企改革主题灵活配置混合</t>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.69</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>77.55</t>
+          <t>90.39</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3314</t>
+          <t>0.1815</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1113,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008405</t>
+          <t>009490</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰紫金泰盈混合C</t>
+          <t>泰康科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>77.05</t>
+          <t>85.76</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3125</t>
+          <t>0.1737</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1151,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011694</t>
+          <t>015455</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+          <t>信达澳银周期动力混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>82.42</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2740</t>
+          <t>0.1598</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1189,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001403</t>
+          <t>002542</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商国企改革主题混合</t>
+          <t>长城久鼎灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.28</t>
+          <t>88.12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1703</t>
+          <t>0.1595</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1227,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>168002</t>
+          <t>002780</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>80.61</t>
+          <t>86.17</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1437</t>
+          <t>0.1509</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1265,36 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002420</t>
+          <t>002934</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富盈鑫灵活配置混合</t>
+          <t>泰康恒泰回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>88.52</t>
+          <t>28.01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1398</t>
+          <t>0.1182</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1303,36 +1057,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>501097</t>
+          <t>005823</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+          <t>泰康颐享混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>38.41</t>
+          <t>20.22</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1341</t>
+          <t>0.1023</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1341,36 +1095,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>012426</t>
+          <t>007777</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方价值臻选混合型证券投资基金A</t>
+          <t>中邮研究精选混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>59.85</t>
+          <t>78.74</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1096</t>
+          <t>0.0992</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1379,36 +1133,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009258</t>
+          <t>002455</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合C</t>
+          <t>民生加银鑫喜灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>89.32</t>
+          <t>25.89</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0932</t>
+          <t>0.0930</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1417,36 +1171,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011695</t>
+          <t>005671</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>82.42</t>
+          <t>86.37</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0846</t>
+          <t>0.0925</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1455,36 +1209,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009853</t>
+          <t>009258</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中加优势企业混合A</t>
+          <t>西部利得景瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>93.15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0541</t>
+          <t>0.0791</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1493,36 +1247,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009077</t>
+          <t>002935</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>红土创新稳进混合A</t>
+          <t>泰康恒泰回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>29.22</t>
+          <t>28.01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0407</t>
+          <t>0.0708</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1531,36 +1285,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>519677</t>
+          <t>005824</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+          <t>泰康颐享混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>2.46</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.85</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0391</t>
+          <t>0.0662</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1569,36 +1323,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009078</t>
+          <t>010642</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>红土创新稳进混合C</t>
+          <t>农银汇理秀山一年持有期混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>29.22</t>
+          <t>21.67</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0368</t>
+          <t>0.0592</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1607,36 +1361,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001536</t>
+          <t>005933</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>南方君选灵活配置混合</t>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>56.57</t>
+          <t>93.54</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0328</t>
+          <t>0.0492</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1645,36 +1399,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>168401</t>
+          <t>010050</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
+          <t>长城成长先锋混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>82.33</t>
+          <t>86.98</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0321</t>
+          <t>0.0395</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1683,32 +1437,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>470021</t>
+          <t>166109</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>汇添富优选回报灵活配置混合A</t>
+          <t>信达澳银量化先锋混合（LOF）A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>84.43</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0278</t>
+          <t>0.0291</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1721,32 +1475,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009854</t>
+          <t>005826</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中加优势企业混合C</t>
+          <t>华夏潜龙精选股票</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>87.66</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0192</t>
+          <t>0.0158</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1759,36 +1513,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009855</t>
+          <t>007043</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中加新兴成长混合A</t>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>86.17</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0164</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1797,36 +1551,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002418</t>
+          <t>005934</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>汇添富优选回报灵活配置混合C</t>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>93.54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1835,12 +1589,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>009856</t>
+          <t>005672</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中加新兴成长混合C</t>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1850,21 +1604,21 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>86.37</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0059</t>
+          <t>0.0048</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1873,36 +1627,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>011149</t>
+          <t>002908</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>创金合信ESG责任投资股票A</t>
+          <t>富国睿利定期开放混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>27.90</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1911,36 +1665,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>012427</t>
+          <t>001866</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>南方价值臻选混合型证券投资基金C</t>
+          <t>北信瑞丰新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>59.85</t>
+          <t>84.81</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1949,36 +1703,320 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>011150</t>
+          <t>166110</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>创金合信ESG责任投资股票C</t>
+          <t>信达澳银量化先锋混合（LOF）C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>84.43</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>3.33</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3363</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2808,7 +2846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2829,7 +2867,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2859,36 +2897,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>673060</t>
+          <t>001856</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合A</t>
+          <t>易方达环保主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.10</t>
+          <t>63.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>92.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3363</t>
+          <t>2.6455</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2897,36 +2935,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009258</t>
+          <t>002148</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合C</t>
+          <t>国寿安保稳惠灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>84.46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1552</t>
+          <t>0.4660</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2935,36 +2973,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005933</t>
+          <t>160143</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>新疆前海联合先进制造灵活配置混合A</t>
+          <t>南方创业板2年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>97.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0619</t>
+          <t>0.4128</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2973,36 +3011,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004128</t>
+          <t>673060</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隆灵活配置混合A</t>
+          <t>西部利得景瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>89.32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0381</t>
+          <t>0.3510</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3011,36 +3049,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007040</t>
+          <t>008404</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隆灵活配置混合C</t>
+          <t>华泰紫金泰盈混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>77.05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0363</t>
+          <t>0.3481</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -3049,36 +3087,910 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005934</t>
+          <t>001445</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>新疆前海联合先进制造灵活配置混合C</t>
+          <t>华安国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>10.69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>77.55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.3314</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3125</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2740</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>38.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>59.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>56.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>59.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3092,7 +4004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3113,7 +4025,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3143,36 +4055,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010963</t>
+          <t>009557</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银周期动力混合</t>
+          <t>申万菱信创业板量化精选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.51</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9520</t>
+          <t>0.1618</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3181,36 +4093,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>673060</t>
+          <t>002006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合A</t>
+          <t>工银瑞信新得益混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>18.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.15</t>
+          <t>20.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3243</t>
+          <t>0.1409</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3219,36 +4131,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000977</t>
+          <t>290014</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城环保主题灵活配置混合</t>
+          <t>泰信现代服务业混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.23</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3188</t>
+          <t>0.0195</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3257,986 +4169,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010049</t>
+          <t>010505</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长城成长先锋混合A</t>
+          <t>申万菱信创业板量化精选股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.98</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2337</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004128</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳隆灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2092</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007040</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳隆灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1815</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009490</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰康科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>85.76</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1737</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>015455</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>信达澳银周期动力混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1598</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002542</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长城久鼎灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.12</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1595</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002780</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>新疆前海联合泓鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>86.17</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1509</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002934</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>泰康恒泰回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>28.01</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1182</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005823</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰康颐享混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>20.22</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1023</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007777</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中邮研究精选混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>78.74</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0992</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002455</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>民生加银鑫喜灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>25.89</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0930</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005671</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>新疆前海联合研究优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>86.37</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0925</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009258</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>西部利得景瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.15</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0791</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002935</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>泰康恒泰回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>28.01</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0708</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005824</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>泰康颐享混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>20.22</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0662</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010642</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>农银汇理秀山一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>21.67</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0592</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005933</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.54</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0492</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010050</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>86.98</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0395</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>166109</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>信达澳银量化先锋混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>84.43</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0291</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005826</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华夏潜龙精选股票</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>87.66</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007043</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>新疆前海联合泓鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>86.17</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005934</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.54</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005672</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>新疆前海联合研究优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>86.37</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002908</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>富国睿利定期开放混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>27.90</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001866</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>北信瑞丰新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>84.81</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>166110</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>信达澳银量化先锋混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>84.43</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4250,128 +4212,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.81</v>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4032</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.63</v>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.44</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300443-金雷股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300443-金雷股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>3.81</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>0.63</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>3.88</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>6.34</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>0.32</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -583,6 +600,1238 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1215</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银生态环境股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8257</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6954</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5182</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4641</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001910</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3947</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2644</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012976</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮兴荣价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>40.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014938</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信澳量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银生态环境股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>61.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信澳量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014939</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1740,7 +2989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2024,7 +3273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2840,7 +4089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3998,7 +5247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4206,7 +5455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300443-金雷股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300443-金雷股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>5.78</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>3.81</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>0.63</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>3.88</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>6.34</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>0.32</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -600,6 +617,898 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012975</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9060</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银生态环境股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8575</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012976</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4290</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2478</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002455</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银鑫喜灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东海海睿致远混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银生态环境股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1831,7 +2740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2989,7 +3898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3273,7 +4182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4089,7 +4998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5247,7 +6156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5455,7 +6364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
